--- a/resources/data/dataFrameA.xlsx
+++ b/resources/data/dataFrameA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90db73ee45f0952d/Professional/Palmex/palmex_DVI/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa-\OneDrive\Professional\Palmex\palmexDVI-ori\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_F25DC773A252ABDACC104886091873E45BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94625C53-9B45-4297-8BF9-FE4DB9EFF84F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BA573-7616-4552-94F7-76A6E3B4DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>PLANTA</t>
   </si>
@@ -51,10 +45,28 @@
     <t>USO</t>
   </si>
   <si>
-    <t>TIEMPO DE VIDA</t>
-  </si>
-  <si>
     <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIEMPO_DE_VIDA</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>PAPA FRANCESA</t>
+  </si>
+  <si>
+    <t>RUEDA</t>
+  </si>
+  <si>
+    <t>MAGNO</t>
+  </si>
+  <si>
+    <t>PARRILLA</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,39 +432,39 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="1">
         <v>10001111</v>
@@ -466,16 +478,16 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>20070</v>
       </c>
       <c r="C3" s="1">
         <v>10001112</v>
@@ -489,16 +501,16 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="1">
         <v>10001113</v>
@@ -512,16 +524,16 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>1121</v>
       </c>
       <c r="C5" s="1">
         <v>10001114</v>
@@ -535,16 +547,16 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>1089</v>
       </c>
       <c r="C6" s="1">
         <v>10001115</v>
@@ -558,16 +570,16 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>20156</v>
       </c>
       <c r="C7" s="1">
         <v>10001116</v>
@@ -581,16 +593,16 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>20356</v>
       </c>
       <c r="C8" s="1">
         <v>10001117</v>
@@ -604,16 +616,16 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
-        <v>2</v>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>20267</v>
       </c>
       <c r="C9" s="1">
         <v>10001118</v>
@@ -627,16 +639,16 @@
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>2</v>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>1178</v>
       </c>
       <c r="C10" s="1">
         <v>10001119</v>
@@ -650,16 +662,16 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
-        <v>2</v>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>1089</v>
       </c>
       <c r="C11" s="1">
         <v>10001120</v>
@@ -673,8 +685,8 @@
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/dataFrameA.xlsx
+++ b/resources/data/dataFrameA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa-\OneDrive\Professional\Palmex\palmexDVI-ori\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa-\OneDrive\Professional\Palmex\palmexDVI-rep\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BA573-7616-4552-94F7-76A6E3B4DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC57EF8C-C4A1-402D-ACAA-6CEFA2FFB01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C11" s="1">
         <v>10001120</v>

--- a/resources/data/dataFrameA.xlsx
+++ b/resources/data/dataFrameA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90db73ee45f0952d/Professional/Palmex/palmex_DVI/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa-\OneDrive\Professional\Palmex\palmexDVI-ori\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_F25DC773A252ABDACC104886091873E45BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94625C53-9B45-4297-8BF9-FE4DB9EFF84F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D78A5C-4936-4F31-A9F3-67DE6C0E521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>PLANTA</t>
   </si>
@@ -51,10 +45,28 @@
     <t>USO</t>
   </si>
   <si>
-    <t>TIEMPO DE VIDA</t>
-  </si>
-  <si>
     <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIEMPO_DE_VIDA</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>PAPA FRANCESA</t>
+  </si>
+  <si>
+    <t>RUEDA</t>
+  </si>
+  <si>
+    <t>MAGNO</t>
+  </si>
+  <si>
+    <t>PARRILLA</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,39 +432,39 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="1">
         <v>10001111</v>
@@ -466,16 +478,16 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>20070</v>
       </c>
       <c r="C3" s="1">
         <v>10001112</v>
@@ -489,16 +501,16 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="1">
         <v>10001113</v>
@@ -512,16 +524,16 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>1121</v>
       </c>
       <c r="C5" s="1">
         <v>10001114</v>
@@ -535,16 +547,16 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>1089</v>
       </c>
       <c r="C6" s="1">
         <v>10001115</v>
@@ -558,16 +570,16 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>20156</v>
       </c>
       <c r="C7" s="1">
         <v>10001116</v>
@@ -581,16 +593,16 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>20356</v>
       </c>
       <c r="C8" s="1">
         <v>10001117</v>
@@ -604,16 +616,16 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
-        <v>2</v>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>20267</v>
       </c>
       <c r="C9" s="1">
         <v>10001118</v>
@@ -627,16 +639,16 @@
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
-        <v>2</v>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>1178</v>
       </c>
       <c r="C10" s="1">
         <v>10001119</v>
@@ -650,16 +662,16 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
-        <v>2</v>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>1081</v>
       </c>
       <c r="C11" s="1">
         <v>10001120</v>
@@ -673,8 +685,8 @@
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/dataFrameA.xlsx
+++ b/resources/data/dataFrameA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa-\OneDrive\Professional\Palmex\palmexDVI-ori\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://palmexalimentos-my.sharepoint.com/personal/practicante_mto_palmex_com/Documents/Documentos/DVI-rep/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D78A5C-4936-4F31-A9F3-67DE6C0E521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B4D78A5C-4936-4F31-A9F3-67DE6C0E521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E40316E-06C0-4F56-B607-718A63F8D286}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,12 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,21 +425,21 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -473,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -482,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -495,7 +498,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="1">
@@ -505,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -528,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -597,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -620,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
